--- a/biology/Médecine/François_Mêlier/François_Mêlier.xlsx
+++ b/biology/Médecine/François_Mêlier/François_Mêlier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_M%C3%AAlier</t>
+          <t>François_Mêlier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Mêlier (né le 14 juillet 1798 à Chasseneuil-sur-Bonnieure en Charente - mort le 16 septembre 1866 à Marseille dans les Bouches-du-Rhône) est un professeur de médecine français, précurseur de santé publique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Mêlier (né le 14 juillet 1798 à Chasseneuil-sur-Bonnieure en Charente - mort le 16 septembre 1866 à Marseille dans les Bouches-du-Rhône) est un professeur de médecine français, précurseur de santé publique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_M%C3%AAlier</t>
+          <t>François_Mêlier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études au Lycée impérial de Limoges[2] puis, à l'hôpital Saint-Alexis de Limoges, où il est nommé interne en 1815[3].
-En 1817, il s'inscrit à Paris où il obtient le double titre d'interne et de lauréat des hôpitaux. Il passe sa thèse le 19 juin 1823. En 1827, il ouvre à l'Athénée royal de Paris un cours de médecine politique ou publique, titre sous lequel il réunit l'hygiène publique et la médecine légale[1],[2]. Il associe les notions de contagion et de contamination ainsi que de prévention à l'isolement et aux règles d’hygiène[1].
-En 1850, il est nommé directeur de la santé pour la circonscription de Marseille[4], puis en 1854, inspecteur général des services sanitaires[3].
-Il est élu membre de l'Académie de médecine pour la section de pathologie médicale le 2 mai 1843, secrétaire annuel de 1846 à 1848, président pour 1852[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études au Lycée impérial de Limoges puis, à l'hôpital Saint-Alexis de Limoges, où il est nommé interne en 1815.
+En 1817, il s'inscrit à Paris où il obtient le double titre d'interne et de lauréat des hôpitaux. Il passe sa thèse le 19 juin 1823. En 1827, il ouvre à l'Athénée royal de Paris un cours de médecine politique ou publique, titre sous lequel il réunit l'hygiène publique et la médecine légale,. Il associe les notions de contagion et de contamination ainsi que de prévention à l'isolement et aux règles d’hygiène.
+En 1850, il est nommé directeur de la santé pour la circonscription de Marseille, puis en 1854, inspecteur général des services sanitaires.
+Il est élu membre de l'Académie de médecine pour la section de pathologie médicale le 2 mai 1843, secrétaire annuel de 1846 à 1848, président pour 1852.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_M%C3%AAlier</t>
+          <t>François_Mêlier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Essai sur le diagnostic médical (1823)
 Études sur les subsistances envisagées dans leurs rapports avec les maladies et la mortalité (1842)
